--- a/rubber_band_bot v1/more info/delta x vs delta y.xlsx
+++ b/rubber_band_bot v1/more info/delta x vs delta y.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nufer PC\Documents\Kevin\Arduino\Robotics Merit badge\Code\Elegoo-Robot-Car-master\rubber_band_bot\more info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nufer PC\Documents\GitHub\Elegoo-Robot-Car\rubber_band_bot v1\more info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>x</t>
   </si>
@@ -39,20 +39,36 @@
     <t>delta y</t>
   </si>
   <si>
-    <t>θ</t>
-  </si>
-  <si>
     <t>delta x greater?</t>
   </si>
   <si>
     <t>x/16</t>
+  </si>
+  <si>
+    <t>θ (rad)</t>
+  </si>
+  <si>
+    <t>θ (deg)</t>
+  </si>
+  <si>
+    <t>Experimental max angle</t>
+  </si>
+  <si>
+    <t>deg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,13 +135,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -946,519 +963,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28A377C-485E-4CAB-A078-C97D021707C2}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>-8</v>
       </c>
-      <c r="B2">
-        <f>A2*PI()/16</f>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:B18" si="0">A2*PI()/16</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C9" si="0">SIN(B2)</f>
+      <c r="C2" s="2">
+        <f>B2*180/PI()</f>
+        <v>-90</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D9" si="1">SIN(B2)</f>
         <v>-1</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D9" si="1">COS(B2)</f>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E9" si="2">COS(B2)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E8" si="2">C2-C3</f>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F8" si="3">D2-D3</f>
         <v>-1.9214719596769569E-2</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F8" si="3">D2-D3</f>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G8" si="4">E2-E3</f>
         <v>-0.19509032201612828</v>
       </c>
-      <c r="G2">
-        <f>ABS(E2)-ABS(F2)</f>
+      <c r="H2" s="2">
+        <f>ABS(F2)-ABS(G2)</f>
         <v>-0.17587560241935871</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>-7</v>
       </c>
-      <c r="B3">
-        <f>A3*PI()/16</f>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
         <v>-1.3744467859455345</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C18" si="5">B3*180/PI()</f>
+        <v>-78.75</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="3"/>
+        <v>-5.6905747891943692E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.18759311034896151</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H18" si="6">ABS(F3)-ABS(G3)</f>
+        <v>-0.13068736245701781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>-6</v>
+      </c>
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>-0.98078528040323043</v>
-      </c>
-      <c r="D3">
+        <v>-1.1780972450961724</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="5"/>
+        <v>-67.5</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>0.19509032201612833</v>
-      </c>
-      <c r="E3">
+        <v>-0.92387953251128674</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="2"/>
-        <v>-5.6905747891943692E-2</v>
-      </c>
-      <c r="F3">
+        <v>0.38268343236508984</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="3"/>
-        <v>-0.18759311034896151</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G18" si="4">ABS(E3)-ABS(F3)</f>
-        <v>-0.13068736245701781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-6</v>
-      </c>
-      <c r="B4">
-        <f>A4*PI()/16</f>
-        <v>-1.1780972450961724</v>
-      </c>
-      <c r="C4">
+        <v>-9.2409920208741503E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.17288680065451245</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="6"/>
+        <v>-8.0476880445770949E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>-5</v>
+      </c>
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>-0.92387953251128674</v>
-      </c>
-      <c r="D4">
+        <v>-0.98174770424681035</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="5"/>
+        <v>-56.25</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>0.38268343236508984</v>
-      </c>
-      <c r="E4">
+        <v>-0.83146961230254524</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>-9.2409920208741503E-2</v>
-      </c>
-      <c r="F4">
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="3"/>
-        <v>-0.17288680065451245</v>
-      </c>
-      <c r="G4">
+        <v>-0.12436283111599777</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="4"/>
-        <v>-8.0476880445770949E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-5</v>
-      </c>
-      <c r="B5">
-        <f>A5*PI()/16</f>
-        <v>-0.98174770424681035</v>
-      </c>
-      <c r="C5">
+        <v>-0.15153654816694528</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.717371705094751E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>-0.83146961230254524</v>
-      </c>
-      <c r="D5">
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="5"/>
+        <v>-45</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>0.55557023301960229</v>
-      </c>
-      <c r="E5">
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>-0.12436283111599777</v>
-      </c>
-      <c r="F5">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="3"/>
         <v>-0.15153654816694528</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="2">
         <f t="shared" si="4"/>
-        <v>-2.717371705094751E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-4</v>
-      </c>
-      <c r="B6">
-        <f>A6*PI()/16</f>
-        <v>-0.78539816339744828</v>
-      </c>
-      <c r="C6">
+        <v>-0.12436283111599766</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="6"/>
+        <v>2.7173717050947621E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I14" si="7">ABS(H6/F6)</f>
+        <v>0.17932120917133992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="D6">
+        <v>-0.58904862254808621</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="5"/>
+        <v>-33.75</v>
+      </c>
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="E6">
+        <v>-0.55557023301960218</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
-        <v>-0.15153654816694528</v>
-      </c>
-      <c r="F6">
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="3"/>
-        <v>-0.12436283111599766</v>
-      </c>
-      <c r="G6">
+        <v>-0.1728868006545124</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>2.7173717050947621E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-3</v>
-      </c>
-      <c r="B7">
-        <f>A7*PI()/16</f>
-        <v>-0.58904862254808621</v>
-      </c>
-      <c r="C7">
+        <v>-9.2409920208741503E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="6"/>
+        <v>8.0476880445770893E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="7"/>
+        <v>0.46548886404920825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.55557023301960218</v>
-      </c>
-      <c r="D7">
+        <v>-0.39269908169872414</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="5"/>
+        <v>-22.5</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>0.83146961230254524</v>
-      </c>
-      <c r="E7">
+        <v>-0.38268343236508978</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.1728868006545124</v>
-      </c>
-      <c r="F7">
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>-9.2409920208741503E-2</v>
-      </c>
-      <c r="G7">
+        <v>-0.18759311034896153</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="4"/>
-        <v>8.0476880445770893E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-2</v>
-      </c>
-      <c r="B8">
-        <f>A8*PI()/16</f>
-        <v>-0.39269908169872414</v>
-      </c>
-      <c r="C8">
+        <v>-5.6905747891943692E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13068736245701784</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.69665331639265771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>-0.38268343236508978</v>
-      </c>
-      <c r="D8">
+        <v>-0.19634954084936207</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="5"/>
+        <v>-11.25</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>0.92387953251128674</v>
-      </c>
-      <c r="E8">
+        <v>-0.19509032201612825</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>-0.18759311034896153</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>-5.6905747891943692E-2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>0.13068736245701784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>-1</v>
-      </c>
-      <c r="B9">
-        <f>A9*PI()/16</f>
-        <v>-0.19634954084936207</v>
-      </c>
-      <c r="C9">
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="F9" s="2">
+        <f>D9-D10</f>
+        <v>-0.19509032201612825</v>
+      </c>
+      <c r="G9" s="2">
+        <f>E9-E10</f>
+        <v>-1.9214719596769569E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.17587560241935868</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="7"/>
+        <v>0.90150859664283567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>-0.19509032201612825</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.98078528040323043</v>
-      </c>
-      <c r="E9">
-        <f>C9-C10</f>
-        <v>-0.19509032201612825</v>
-      </c>
-      <c r="F9">
-        <f>D9-D10</f>
-        <v>-1.9214719596769569E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>0.17587560241935868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
         <v>0</v>
       </c>
-      <c r="B10">
-        <f>A10*PI()/16</f>
+      <c r="C10" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="2">
         <f>SIN(B10)</f>
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="2">
         <f>COS(B10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11">
-        <f>A11*PI()/16</f>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
         <v>0.19634954084936207</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <f t="shared" si="5"/>
+        <v>11.25</v>
+      </c>
+      <c r="D11" s="2">
         <f>SIN(B11)</f>
         <v>0.19509032201612825</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="2">
         <f>COS(B11)</f>
         <v>0.98078528040323043</v>
       </c>
-      <c r="E11">
-        <f>C11-C10</f>
+      <c r="F11" s="2">
+        <f>D11-D10</f>
         <v>0.19509032201612825</v>
       </c>
-      <c r="F11">
-        <f>D11-D10</f>
+      <c r="G11" s="2">
+        <f>E11-E10</f>
         <v>-1.9214719596769569E-2</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
+      <c r="H11" s="2">
+        <f t="shared" si="6"/>
         <v>0.17587560241935868</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="I11" s="2">
+        <f t="shared" si="7"/>
+        <v>0.90150859664283567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12">
-        <f>A12*PI()/16</f>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
         <v>0.39269908169872414</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C18" si="5">SIN(B12)</f>
+      <c r="C12" s="2">
+        <f t="shared" si="5"/>
+        <v>22.5</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D18" si="8">SIN(B12)</f>
         <v>0.38268343236508978</v>
       </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D18" si="6">COS(B12)</f>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:E18" si="9">COS(B12)</f>
         <v>0.92387953251128674</v>
       </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E18" si="7">C12-C11</f>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F18" si="10">D12-D11</f>
         <v>0.18759311034896153</v>
       </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F18" si="8">D12-D11</f>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:G18" si="11">E12-E11</f>
         <v>-5.6905747891943692E-2</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
+      <c r="H12" s="2">
+        <f t="shared" si="6"/>
         <v>0.13068736245701784</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="I12" s="2">
+        <f t="shared" si="7"/>
+        <v>0.69665331639265771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13">
-        <f>A13*PI()/16</f>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
         <v>0.58904862254808621</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" si="5"/>
+        <v>33.75</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="8"/>
         <v>0.55557023301960218</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="2">
+        <f t="shared" si="9"/>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.1728868006545124</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="11"/>
+        <v>-9.2409920208741503E-2</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="6"/>
+        <v>8.0476880445770893E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="7"/>
+        <v>0.46548886404920825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="8"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="9"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="10"/>
+        <v>0.15153654816694528</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.12436283111599766</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="6"/>
+        <v>2.7173717050947621E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17932120917133992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98174770424681035</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="5"/>
+        <v>56.25</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="8"/>
         <v>0.83146961230254524</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="7"/>
-        <v>0.1728868006545124</v>
-      </c>
-      <c r="F13">
+      <c r="E15" s="2">
+        <f t="shared" si="9"/>
+        <v>0.55557023301960229</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="10"/>
+        <v>0.12436283111599777</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.15153654816694528</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.717371705094751E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="D16" s="2">
         <f t="shared" si="8"/>
-        <v>-9.2409920208741503E-2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>8.0476880445770893E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <f>A14*PI()/16</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="C14">
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38268343236508984</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="10"/>
+        <v>9.2409920208741503E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.17288680065451245</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="6"/>
+        <v>-8.0476880445770949E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3744467859455345</v>
+      </c>
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="D14">
+        <v>78.75</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="9"/>
+        <v>0.19509032201612833</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="10"/>
+        <v>5.6905747891943692E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.18759311034896151</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="6"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="7"/>
-        <v>0.15153654816694528</v>
-      </c>
-      <c r="F14">
+        <v>-0.13068736245701781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="D18" s="2">
         <f t="shared" si="8"/>
-        <v>-0.12436283111599766</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>2.7173717050947621E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <f>A15*PI()/16</f>
-        <v>0.98174770424681035</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="5"/>
-        <v>0.83146961230254524</v>
-      </c>
-      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="9"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="10"/>
+        <v>1.9214719596769569E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.19509032201612828</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="6"/>
-        <v>0.55557023301960229</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="7"/>
-        <v>0.12436283111599777</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="8"/>
-        <v>-0.15153654816694528</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>-2.717371705094751E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <f>A16*PI()/16</f>
-        <v>1.1780972450961724</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="5"/>
-        <v>0.92387953251128674</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="6"/>
-        <v>0.38268343236508984</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="7"/>
-        <v>9.2409920208741503E-2</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="8"/>
-        <v>-0.17288680065451245</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>-8.0476880445770949E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <f>A17*PI()/16</f>
-        <v>1.3744467859455345</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="5"/>
-        <v>0.98078528040323043</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="6"/>
-        <v>0.19509032201612833</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="7"/>
-        <v>5.6905747891943692E-2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="8"/>
-        <v>-0.18759311034896151</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>-0.13068736245701781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+        <v>-0.17587560241935871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
-        <f>A18*PI()/16</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="6"/>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="7"/>
-        <v>1.9214719596769569E-2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="8"/>
-        <v>-0.19509032201612828</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>-0.17587560241935871</v>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="F27" s="2">
+        <f>ATAN(E27/E28)*180/PI()</f>
+        <v>19.840698083968348</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="2">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
